--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_86_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_86_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.020276940782935, 5.467291931159956]</t>
+          <t>[5.020047619097021, 5.46752125284587]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.17144160219685478, 0.11388118869167752]</t>
+          <t>[-0.17161364743644025, 0.11405323393126299]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.686432711775864</v>
+        <v>0.6867897161478957</v>
       </c>
       <c r="V2" t="n">
-        <v>0.686432711775864</v>
+        <v>0.6867897161478957</v>
       </c>
       <c r="W2" t="n">
         <v>6.245285285285423</v>
